--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -742,7 +742,7 @@
 QuestionnaireAnswersForm Data</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
+    <t xml:space="preserve">QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
+    <t xml:space="preserve">Patient {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>ddccImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
+    <t xml:space="preserve">Immunization {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>ddccImmunizationRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
+    <t xml:space="preserve">ImmunizationRecommendation {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ddccDocumentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference}
+    <t xml:space="preserve">DocumentReference {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference}
 </t>
   </si>
   <si>
@@ -848,7 +848,7 @@
     <t>ddccComposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
+    <t xml:space="preserve">Composition {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -462,7 +462,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:resource}
+    <t xml:space="preserve">profile:resource.resolve()}
 </t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -462,7 +462,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource.resolve()}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -857,7 +857,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}sdcqr-2:When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers. {(QuestionnaireResponse|repeat(answer|item)).select(item.where(answer.value.exists()).linkId.isDistinct()).allTrue()}</t>
   </si>
   <si>
     <t>Observation[moodCode=EVN]</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$241</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -903,7 +906,7 @@
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
+    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
   </si>
   <si>
     <t>VXU_V04</t>
@@ -1117,6 +1120,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1454,7 +1472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -2116,7 +2134,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>145</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>150</v>
       </c>
@@ -2780,7 +2798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>158</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>164</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>167</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>170</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>177</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>178</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>179</v>
       </c>
@@ -3551,7 +3569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>180</v>
       </c>
@@ -3660,7 +3678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>183</v>
       </c>
@@ -3771,7 +3789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>187</v>
       </c>
@@ -3880,7 +3898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>191</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>195</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>196</v>
       </c>
@@ -4209,7 +4227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>197</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>198</v>
       </c>
@@ -4433,7 +4451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>204</v>
       </c>
@@ -4544,7 +4562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>209</v>
       </c>
@@ -4653,7 +4671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>213</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>214</v>
       </c>
@@ -4873,7 +4891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>215</v>
       </c>
@@ -4986,7 +5004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>216</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>221</v>
       </c>
@@ -5206,7 +5224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>225</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>228</v>
       </c>
@@ -5424,7 +5442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>230</v>
       </c>
@@ -5533,7 +5551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>233</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>236</v>
       </c>
@@ -5751,7 +5769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>240</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>241</v>
       </c>
@@ -5971,7 +5989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>242</v>
       </c>
@@ -6084,7 +6102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>243</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>246</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>249</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>253</v>
       </c>
@@ -6524,7 +6542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>257</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>170</v>
       </c>
@@ -6746,7 +6764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>177</v>
       </c>
@@ -6855,7 +6873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>178</v>
       </c>
@@ -6966,7 +6984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>179</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>180</v>
       </c>
@@ -7188,7 +7206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>183</v>
       </c>
@@ -7299,7 +7317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>187</v>
       </c>
@@ -7410,7 +7428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>191</v>
       </c>
@@ -7519,7 +7537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>195</v>
       </c>
@@ -7628,7 +7646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>196</v>
       </c>
@@ -7739,7 +7757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>197</v>
       </c>
@@ -7852,7 +7870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>198</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>204</v>
       </c>
@@ -8074,7 +8092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>209</v>
       </c>
@@ -8183,7 +8201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>213</v>
       </c>
@@ -8292,7 +8310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>214</v>
       </c>
@@ -8403,7 +8421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>215</v>
       </c>
@@ -8516,7 +8534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>216</v>
       </c>
@@ -8625,7 +8643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>221</v>
       </c>
@@ -8736,7 +8754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>225</v>
       </c>
@@ -8845,7 +8863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>228</v>
       </c>
@@ -8954,7 +8972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>230</v>
       </c>
@@ -9063,7 +9081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>233</v>
       </c>
@@ -9172,7 +9190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>236</v>
       </c>
@@ -9281,7 +9299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>240</v>
       </c>
@@ -9390,7 +9408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>241</v>
       </c>
@@ -9501,7 +9519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>242</v>
       </c>
@@ -9614,7 +9632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>243</v>
       </c>
@@ -9723,7 +9741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>246</v>
       </c>
@@ -9832,7 +9850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>249</v>
       </c>
@@ -9943,7 +9961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>253</v>
       </c>
@@ -10054,7 +10072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>257</v>
       </c>
@@ -10165,7 +10183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>170</v>
       </c>
@@ -10276,7 +10294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>177</v>
       </c>
@@ -10385,7 +10403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>178</v>
       </c>
@@ -10496,7 +10514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>179</v>
       </c>
@@ -10609,7 +10627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>180</v>
       </c>
@@ -10718,7 +10736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>183</v>
       </c>
@@ -10845,7 +10863,7 @@
         <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -10938,7 +10956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>191</v>
       </c>
@@ -11047,7 +11065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>195</v>
       </c>
@@ -11156,7 +11174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>196</v>
       </c>
@@ -11267,7 +11285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>197</v>
       </c>
@@ -11380,7 +11398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>198</v>
       </c>
@@ -11491,7 +11509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>204</v>
       </c>
@@ -11602,7 +11620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>209</v>
       </c>
@@ -11711,7 +11729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>213</v>
       </c>
@@ -11820,7 +11838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>214</v>
       </c>
@@ -11931,7 +11949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>215</v>
       </c>
@@ -12044,7 +12062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>216</v>
       </c>
@@ -12153,7 +12171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>221</v>
       </c>
@@ -12264,7 +12282,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>225</v>
       </c>
@@ -12373,7 +12391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>228</v>
       </c>
@@ -12482,7 +12500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>230</v>
       </c>
@@ -12591,7 +12609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>233</v>
       </c>
@@ -12700,7 +12718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>236</v>
       </c>
@@ -12809,7 +12827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>240</v>
       </c>
@@ -12918,7 +12936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
         <v>241</v>
       </c>
@@ -13029,7 +13047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>242</v>
       </c>
@@ -13142,7 +13160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>243</v>
       </c>
@@ -13251,7 +13269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>246</v>
       </c>
@@ -13360,7 +13378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>249</v>
       </c>
@@ -13471,7 +13489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>253</v>
       </c>
@@ -13582,7 +13600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>257</v>
       </c>
@@ -13693,7 +13711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>170</v>
       </c>
@@ -13804,7 +13822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>177</v>
       </c>
@@ -13913,7 +13931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>178</v>
       </c>
@@ -14024,7 +14042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>179</v>
       </c>
@@ -14137,7 +14155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
         <v>180</v>
       </c>
@@ -14246,7 +14264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>183</v>
       </c>
@@ -14373,7 +14391,7 @@
         <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>74</v>
@@ -14466,7 +14484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>191</v>
       </c>
@@ -14575,7 +14593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>195</v>
       </c>
@@ -14684,7 +14702,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
         <v>196</v>
       </c>
@@ -14795,7 +14813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
         <v>197</v>
       </c>
@@ -14908,7 +14926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>198</v>
       </c>
@@ -15019,7 +15037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
         <v>204</v>
       </c>
@@ -15130,7 +15148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
         <v>209</v>
       </c>
@@ -15239,7 +15257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
         <v>213</v>
       </c>
@@ -15348,7 +15366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
         <v>214</v>
       </c>
@@ -15459,7 +15477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>215</v>
       </c>
@@ -15572,7 +15590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>216</v>
       </c>
@@ -15681,7 +15699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>221</v>
       </c>
@@ -15792,7 +15810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
         <v>225</v>
       </c>
@@ -15901,7 +15919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
         <v>228</v>
       </c>
@@ -16010,7 +16028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>230</v>
       </c>
@@ -16119,7 +16137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
         <v>233</v>
       </c>
@@ -16228,7 +16246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
         <v>236</v>
       </c>
@@ -16337,7 +16355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
         <v>240</v>
       </c>
@@ -16446,7 +16464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
         <v>241</v>
       </c>
@@ -16557,7 +16575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>242</v>
       </c>
@@ -16670,7 +16688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>243</v>
       </c>
@@ -16779,7 +16797,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>246</v>
       </c>
@@ -16888,7 +16906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
         <v>249</v>
       </c>
@@ -16999,7 +17017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>253</v>
       </c>
@@ -17110,7 +17128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
         <v>257</v>
       </c>
@@ -17221,7 +17239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
         <v>170</v>
       </c>
@@ -17332,7 +17350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
         <v>177</v>
       </c>
@@ -17441,7 +17459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
         <v>178</v>
       </c>
@@ -17552,7 +17570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
         <v>179</v>
       </c>
@@ -17665,7 +17683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>180</v>
       </c>
@@ -17774,7 +17792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>183</v>
       </c>
@@ -17885,7 +17903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
         <v>187</v>
       </c>
@@ -17994,7 +18012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
         <v>191</v>
       </c>
@@ -18103,7 +18121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
         <v>195</v>
       </c>
@@ -18212,7 +18230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
         <v>196</v>
       </c>
@@ -18323,7 +18341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
         <v>197</v>
       </c>
@@ -18436,7 +18454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
         <v>198</v>
       </c>
@@ -18547,7 +18565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
         <v>204</v>
       </c>
@@ -18658,7 +18676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
         <v>209</v>
       </c>
@@ -18767,7 +18785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>213</v>
       </c>
@@ -18876,7 +18894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>214</v>
       </c>
@@ -18987,7 +19005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>215</v>
       </c>
@@ -19100,7 +19118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
         <v>216</v>
       </c>
@@ -19209,7 +19227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
         <v>221</v>
       </c>
@@ -19320,7 +19338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
         <v>225</v>
       </c>
@@ -19429,7 +19447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
         <v>228</v>
       </c>
@@ -19538,7 +19556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
         <v>230</v>
       </c>
@@ -19647,7 +19665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
         <v>233</v>
       </c>
@@ -19756,7 +19774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
         <v>236</v>
       </c>
@@ -19865,7 +19883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
         <v>240</v>
       </c>
@@ -19974,7 +19992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
         <v>241</v>
       </c>
@@ -20085,7 +20103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
         <v>242</v>
       </c>
@@ -20198,7 +20216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
         <v>243</v>
       </c>
@@ -20307,7 +20325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
         <v>246</v>
       </c>
@@ -20416,7 +20434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
         <v>249</v>
       </c>
@@ -20527,7 +20545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
         <v>253</v>
       </c>
@@ -20638,7 +20656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
         <v>257</v>
       </c>
@@ -20749,7 +20767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
         <v>170</v>
       </c>
@@ -20860,7 +20878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
         <v>177</v>
       </c>
@@ -20969,7 +20987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
         <v>178</v>
       </c>
@@ -21080,7 +21098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
         <v>179</v>
       </c>
@@ -21193,7 +21211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
         <v>180</v>
       </c>
@@ -21302,7 +21320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
         <v>183</v>
       </c>
@@ -21413,7 +21431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
         <v>187</v>
       </c>
@@ -21524,7 +21542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
         <v>191</v>
       </c>
@@ -21633,7 +21651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
         <v>195</v>
       </c>
@@ -21742,7 +21760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
         <v>196</v>
       </c>
@@ -21853,7 +21871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
         <v>197</v>
       </c>
@@ -21966,7 +21984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
         <v>198</v>
       </c>
@@ -22077,7 +22095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
         <v>204</v>
       </c>
@@ -22188,7 +22206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
         <v>209</v>
       </c>
@@ -22297,7 +22315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
         <v>213</v>
       </c>
@@ -22406,7 +22424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
         <v>214</v>
       </c>
@@ -22517,7 +22535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
         <v>215</v>
       </c>
@@ -22630,7 +22648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
         <v>216</v>
       </c>
@@ -22739,7 +22757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
         <v>221</v>
       </c>
@@ -22850,7 +22868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
         <v>225</v>
       </c>
@@ -22959,7 +22977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
         <v>228</v>
       </c>
@@ -23068,7 +23086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
         <v>230</v>
       </c>
@@ -23177,7 +23195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
         <v>233</v>
       </c>
@@ -23286,7 +23304,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
         <v>236</v>
       </c>
@@ -23395,7 +23413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
         <v>240</v>
       </c>
@@ -23504,7 +23522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
         <v>241</v>
       </c>
@@ -23615,7 +23633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
         <v>242</v>
       </c>
@@ -23728,7 +23746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
         <v>243</v>
       </c>
@@ -23837,7 +23855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
         <v>246</v>
       </c>
@@ -23946,7 +23964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
         <v>249</v>
       </c>
@@ -24057,7 +24075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
         <v>253</v>
       </c>
@@ -24168,7 +24186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
         <v>257</v>
       </c>
@@ -24279,7 +24297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
         <v>170</v>
       </c>
@@ -24390,7 +24408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
         <v>177</v>
       </c>
@@ -24499,7 +24517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
         <v>178</v>
       </c>
@@ -24610,7 +24628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
         <v>179</v>
       </c>
@@ -24723,7 +24741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
         <v>180</v>
       </c>
@@ -24832,7 +24850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
         <v>183</v>
       </c>
@@ -24943,7 +24961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
         <v>187</v>
       </c>
@@ -25054,7 +25072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
         <v>191</v>
       </c>
@@ -25163,7 +25181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
         <v>195</v>
       </c>
@@ -25272,7 +25290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
         <v>196</v>
       </c>
@@ -25383,7 +25401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
         <v>197</v>
       </c>
@@ -25496,7 +25514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
         <v>198</v>
       </c>
@@ -25607,7 +25625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
         <v>204</v>
       </c>
@@ -25718,7 +25736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
         <v>209</v>
       </c>
@@ -25827,7 +25845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
         <v>213</v>
       </c>
@@ -25936,7 +25954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
         <v>214</v>
       </c>
@@ -26047,7 +26065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
         <v>215</v>
       </c>
@@ -26160,7 +26178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
         <v>216</v>
       </c>
@@ -26269,7 +26287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
         <v>221</v>
       </c>
@@ -26380,7 +26398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
         <v>225</v>
       </c>
@@ -26489,7 +26507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
         <v>228</v>
       </c>
@@ -26598,7 +26616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
         <v>230</v>
       </c>
@@ -26707,7 +26725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
         <v>233</v>
       </c>
@@ -26816,7 +26834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
         <v>236</v>
       </c>
@@ -26925,7 +26943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
         <v>240</v>
       </c>
@@ -27034,7 +27052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
         <v>241</v>
       </c>
@@ -27145,7 +27163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
         <v>242</v>
       </c>
@@ -27258,7 +27276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
         <v>243</v>
       </c>
@@ -27367,7 +27385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
         <v>246</v>
       </c>
@@ -27476,7 +27494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
         <v>249</v>
       </c>
@@ -27587,7 +27605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
         <v>253</v>
       </c>
@@ -27698,7 +27716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
         <v>257</v>
       </c>
@@ -27809,7 +27827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
         <v>303</v>
       </c>
@@ -27923,6 +27941,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM241">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI240">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCAddBundle.xlsx
+++ b/StructureDefinition-DDCCAddBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
